--- a/other/input/2018/summer_2018_wqx_data/Data/Tauriainen/Fecal_Coliform_Results_Spreadsheet_Summer2018.xlsx
+++ b/other/input/2018/summer_2018_wqx_data/Data/Tauriainen/Fecal_Coliform_Results_Spreadsheet_Summer2018.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/kenai-river-wqx-qaqc/other/input/2018/summer_2018_wqx_data/Data/Tauriainen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\kenai-river-wqx-qaqc\other\input\2018\summer_2018_wqx_data\Data\Tauriainen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="11_B5BC18679FBAAC10F7C100A7775E5385CE94EBDF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{142956C9-EF5E-4113-9C5E-E68F6768E018}"/>
   <bookViews>
-    <workbookView xWindow="32925" yWindow="45" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32928" yWindow="48" windowWidth="21600" windowHeight="11292"/>
   </bookViews>
   <sheets>
     <sheet name="Summer_2018_Fecal_Coliform" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>Fecal Coliform Analysis</t>
   </si>
@@ -152,12 +151,36 @@
   </si>
   <si>
     <t>Date of Sampling: 7/31/2018</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>BM 20240904</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RM_31_Morgans_Landing_DUP</t>
+  </si>
+  <si>
+    <t>Less than 100 ml sample</t>
+  </si>
+  <si>
+    <t>Slightly less than 100 ml sample</t>
+  </si>
+  <si>
+    <t>Neg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -217,6 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -235,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,9 +299,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,44 +544,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="11" max="11" width="13.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3"/>
+    <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="3"/>
+    <col min="11" max="11" width="13.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -576,7 +600,7 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -598,295 +622,896 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="H6" s="6"/>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6">
+        <f>G6</f>
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7:H30" si="0">G7</f>
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="6">
+        <v>79</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="6">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="K10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.49652777777777801</v>
+      </c>
+      <c r="D11" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="K12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.49652777777777801</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="6">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.49652777777777801</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6">
+        <v>11</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="K14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.49652777777777801</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="K15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.49652777777777801</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="6">
+        <v>76</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.49652777777777801</v>
+      </c>
+      <c r="D16" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="6">
+        <v>21</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D18" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="6">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="6">
+        <v>6</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D25" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="2"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D27" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="6">
+        <v>5</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="D28" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="6">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="K29"/>
+      <c r="B29" s="2">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D29" s="5">
+        <v>43312</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:N29">
+  <sortState ref="A6:N29">
     <sortCondition ref="A6:A29"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -896,24 +1521,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
